--- a/app/modules/common/FEAT/F16/linz_ag/scenarios-mapper.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/scenarios-mapper.xlsx
@@ -27,16 +27,16 @@
     <t>file</t>
   </si>
   <si>
-    <t>szenario_1</t>
-  </si>
-  <si>
-    <t>name_scenarion_2</t>
-  </si>
-  <si>
-    <t>Szenario Status Quo</t>
-  </si>
-  <si>
-    <t>Szenario Hochpreis</t>
+    <t>Base Szenario</t>
+  </si>
+  <si>
+    <t>Szenario No Nuc Low C02</t>
+  </si>
+  <si>
+    <t>scenario_lzb</t>
+  </si>
+  <si>
+    <t>scenario_lzn</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:P8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/linz_ag/scenarios-mapper.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/scenarios-mapper.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="6" r:id="rId1"/>
+    <sheet name="sub-scenarios" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -37,6 +38,21 @@
   </si>
   <si>
     <t>scenario_lzn</t>
+  </si>
+  <si>
+    <t>Current Price Scenario</t>
+  </si>
+  <si>
+    <t>Moderae Price Scenario</t>
+  </si>
+  <si>
+    <t>High Price Scenario</t>
+  </si>
+  <si>
+    <t>Low Price Scenario</t>
+  </si>
+  <si>
+    <t>Prefix</t>
   </si>
 </sst>
 </file>
@@ -450,13 +466,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,4 +508,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/modules/common/FEAT/F16/linz_ag/scenarios-mapper.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/scenarios-mapper.xlsx
@@ -15,12 +15,12 @@
     <sheet name="scenarios" sheetId="6" r:id="rId1"/>
     <sheet name="sub-scenarios" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -28,31 +28,25 @@
     <t>file</t>
   </si>
   <si>
-    <t>Base Szenario</t>
-  </si>
-  <si>
-    <t>Szenario No Nuc Low C02</t>
-  </si>
-  <si>
-    <t>scenario_lzb</t>
-  </si>
-  <si>
-    <t>scenario_lzn</t>
-  </si>
-  <si>
-    <t>Current Price Scenario</t>
-  </si>
-  <si>
-    <t>Moderae Price Scenario</t>
-  </si>
-  <si>
-    <t>High Price Scenario</t>
-  </si>
-  <si>
-    <t>Low Price Scenario</t>
-  </si>
-  <si>
     <t>Prefix</t>
+  </si>
+  <si>
+    <t>Portfolio Status Quo</t>
+  </si>
+  <si>
+    <t>Scenario Hoch</t>
+  </si>
+  <si>
+    <t>Szenario Niedrig</t>
+  </si>
+  <si>
+    <t>Szenario Moderat</t>
+  </si>
+  <si>
+    <t>Szenario Quo</t>
+  </si>
+  <si>
+    <t>portfolio_quo</t>
   </si>
 </sst>
 </file>
@@ -463,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,21 +482,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -515,7 +498,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -540,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/linz_ag/scenarios-mapper.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/scenarios-mapper.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nesa\Desktop\Arbeit EEG\Hotmaps\Dispatch\app\modules\common\FEAT\F16\linz_ag\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="6" r:id="rId1"/>
     <sheet name="sub-scenarios" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -31,28 +26,43 @@
     <t>Prefix</t>
   </si>
   <si>
-    <t>Portfolio Status Quo</t>
-  </si>
-  <si>
-    <t>Scenario Hoch</t>
-  </si>
-  <si>
-    <t>Szenario Niedrig</t>
-  </si>
-  <si>
-    <t>Szenario Moderat</t>
-  </si>
-  <si>
-    <t>Szenario Quo</t>
-  </si>
-  <si>
-    <t>portfolio_quo</t>
+    <t>input_P0_2030</t>
+  </si>
+  <si>
+    <t>Portfolio P0_2030</t>
+  </si>
+  <si>
+    <t>Moderat</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Niedrig</t>
+  </si>
+  <si>
+    <t>input_P1_2030</t>
+  </si>
+  <si>
+    <t>input_P2_2030</t>
+  </si>
+  <si>
+    <t>input_P3_2030</t>
+  </si>
+  <si>
+    <t>Portfolio P1_2030</t>
+  </si>
+  <si>
+    <t>Portfolio P2_2030</t>
+  </si>
+  <si>
+    <t>Portfolio P3_2030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,9 +147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,9 +187,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,26 +222,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,26 +257,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,16 +433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,10 +458,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -497,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,8 +531,8 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>2017</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
